--- a/配置文档/道具货币相关/货币相关.xlsx
+++ b/配置文档/道具货币相关/货币相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18870" windowHeight="8910"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MoneyBase_货币界面显示配置" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="1">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="1">数据类型!$A$1:$D$37</definedName>
+    <definedName name="连接" localSheetId="1">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
   <si>
     <t>第一行 为备注
 第二行 为字段导出设置
@@ -438,6 +438,9 @@
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
@@ -447,6 +450,9 @@
     <t>BOOL</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -456,6 +462,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -492,6 +501,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -543,6 +555,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -579,12 +594,18 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -609,6 +630,9 @@
     <t>(1.2,3.5)|(1.4,3.2)</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -633,21 +657,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -667,6 +691,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -1332,11 +1365,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1456,12 +1492,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1720,7 +1757,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1736,194 +1773,194 @@
     <col min="18" max="18" width="26.0333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="115" customHeight="1" spans="1:18">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" ht="115" customHeight="1" spans="1:18">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="3"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <v>2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="13">
         <v>2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="13">
         <v>2</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>2</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="13">
         <v>2</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="13">
         <v>2</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="12">
         <v>2</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="13">
         <v>3</v>
       </c>
-      <c r="Q2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" ht="14.25" spans="1:12">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:17">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" ht="49.6" spans="1:12">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <v>0</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="15">
         <v>1000000</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="15">
         <v>0</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="15">
         <v>0</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="15">
         <v>60</v>
       </c>
-      <c r="K5" s="14" t="str">
+      <c r="K5" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_939AC8FC18334A08863030C950C79B6C",1)</f>
         <v>=DISPIMG("ID_939AC8FC18334A08863030C950C79B6C",1)</v>
       </c>
@@ -1933,37 +1970,37 @@
       </c>
     </row>
     <row r="6" ht="39.5" spans="1:12">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="15">
         <v>0</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="15">
         <v>1000000</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="15">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="15">
         <v>0</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="15">
         <v>60</v>
       </c>
-      <c r="K6" s="14" t="str">
+      <c r="K6" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_8468A759A4F14251AF11A7BB2CC96E9F",1)</f>
         <v>=DISPIMG("ID_8468A759A4F14251AF11A7BB2CC96E9F",1)</v>
       </c>
@@ -1972,124 +2009,124 @@
         <v>=DISPIMG("ID_3810F6E807B2445394E68D66882E4197",1)</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="39.55" spans="1:12">
-      <c r="A7" s="15">
+    <row r="7" s="5" customFormat="1" ht="39.55" spans="1:12">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <v>0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>1000000</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="16">
         <v>0</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="16">
         <v>0</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="16">
         <v>60</v>
       </c>
-      <c r="K7" s="15" t="str">
+      <c r="K7" s="16" t="str">
         <f>_xlfn.DISPIMG("ID_5B7B3AD2D12B4F01A2F925F96FFFB78A",1)</f>
         <v>=DISPIMG("ID_5B7B3AD2D12B4F01A2F925F96FFFB78A",1)</v>
       </c>
-      <c r="L7" s="4" t="str">
+      <c r="L7" s="5" t="str">
         <f>_xlfn.DISPIMG("ID_9309EF61719C429E951CC3A89AB4002B",1)</f>
         <v>=DISPIMG("ID_9309EF61719C429E951CC3A89AB4002B",1)</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="53" customHeight="1" spans="1:12">
-      <c r="A8" s="16" t="s">
+    <row r="8" s="6" customFormat="1" ht="53" customHeight="1" spans="1:12">
+      <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="18">
         <v>0</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="18">
         <v>1000000</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="18">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="18">
         <v>0</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="18">
         <v>60</v>
       </c>
-      <c r="K8" s="17" t="str">
+      <c r="K8" s="18" t="str">
         <f>_xlfn.DISPIMG("ID_6CDAFD46F94845659D2079055E20B351",1)</f>
         <v>=DISPIMG("ID_6CDAFD46F94845659D2079055E20B351",1)</v>
       </c>
-      <c r="L8" s="5" t="str">
+      <c r="L8" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_7CF6053CD50C41D0BB44AA5E01B7C92E",1)</f>
         <v>=DISPIMG("ID_7CF6053CD50C41D0BB44AA5E01B7C92E",1)</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" ht="14.25" spans="1:1">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" ht="14.25" spans="1:1">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" ht="14.25" spans="1:1">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" ht="14.25" spans="1:1">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
     </row>
     <row r="14" ht="14.25" spans="1:1">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15" ht="14.25" spans="1:1">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
     </row>
     <row r="16" ht="14.25" spans="1:1">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
     </row>
     <row r="17" ht="14.25" spans="1:1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="18" ht="14.25" spans="1:1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
     </row>
     <row r="19" ht="14.25" spans="1:1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
     </row>
     <row r="20" ht="14.25" spans="1:1">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
     </row>
     <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
     </row>
     <row r="22" ht="13" customHeight="1"/>
   </sheetData>
@@ -2108,20 +2145,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2134,36 +2172,45 @@
       <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2174,24 +2221,30 @@
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2199,260 +2252,330 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>83</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>104</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2460,102 +2583,139 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>121</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/道具货币相关/货币相关.xlsx
+++ b/配置文档/道具货币相关/货币相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MoneyBase_货币界面显示配置" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="ID_31D4D0A79C894E47B87D911C34A74D14" descr="废料UI"/>
+        <xdr:cNvPr id="7" name="ID_9CEEDA2E8A1B4B23B847B51ACADD29A9" descr="废料UI2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -150,8 +150,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10074275" y="2078355"/>
-          <a:ext cx="476250" cy="473710"/>
+          <a:off x="19969480" y="2261235"/>
+          <a:ext cx="475615" cy="474345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -162,7 +162,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="ID_3810F6E807B2445394E68D66882E4197" descr="万能齿轮UI"/>
+        <xdr:cNvPr id="11" name="ID_A9D3AAFAD75A47A192D3D3E968FAE7B0" descr="万能齿轮UI2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -175,8 +175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9750425" y="2671445"/>
-          <a:ext cx="476250" cy="473075"/>
+          <a:off x="19994245" y="2915920"/>
+          <a:ext cx="475615" cy="479425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -187,7 +187,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="ID_9309EF61719C429E951CC3A89AB4002B" descr="怨灵水晶UI"/>
+        <xdr:cNvPr id="12" name="ID_39C65F2DBD3749ACB9C994AC80BA74A3" descr="怨灵水晶UI2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -200,8 +200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10073640" y="3841115"/>
-          <a:ext cx="476250" cy="473710"/>
+          <a:off x="19869785" y="3942715"/>
+          <a:ext cx="475615" cy="481965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -212,7 +212,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="ID_7CF6053CD50C41D0BB44AA5E01B7C92E" descr="次元岛溶液UI"/>
+        <xdr:cNvPr id="13" name="ID_36B1F02104A6410EB450593DD655BB37" descr="次元岛溶剂UI2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -225,8 +225,33 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9963150" y="4432300"/>
-          <a:ext cx="476250" cy="470535"/>
+          <a:off x="19994245" y="4730750"/>
+          <a:ext cx="475615" cy="477520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="ID_C833BB38982C471F84C7091A3E686EE1" descr="核心单元"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18495645" y="4400550"/>
+          <a:ext cx="475615" cy="472440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -300,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
   <si>
     <t>第一行 为备注
 第二行 为字段导出设置
@@ -408,28 +433,31 @@
     <t>废料</t>
   </si>
   <si>
-    <t>废料----</t>
+    <t>用于加工成为其他资源</t>
   </si>
   <si>
     <t>万能齿轮</t>
   </si>
   <si>
-    <t>万能齿轮----</t>
+    <t>用于基础建设</t>
   </si>
   <si>
     <t>怨灵水晶</t>
   </si>
   <si>
-    <t>怨灵水晶-----</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>用于升级</t>
   </si>
   <si>
     <t>次元岛溶剂</t>
   </si>
   <si>
-    <t>次元岛溶剂———</t>
+    <t>用于道具，周期，复活，传送，特殊</t>
+  </si>
+  <si>
+    <t>核心单元</t>
+  </si>
+  <si>
+    <t>可利用核心单元，用于解锁科技</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -909,7 +937,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,7 +952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,12 +1043,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,56 +1338,56 @@
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,10 +1397,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1414,14 +1436,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1756,8 +1793,8 @@
   <sheetPr/>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1773,7 +1810,7 @@
     <col min="18" max="18" width="26.0333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="115" customHeight="1" spans="1:18">
+    <row r="1" s="3" customFormat="1" ht="115" customHeight="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1810,8 +1847,8 @@
       <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="3"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
       <c r="A2" s="11" t="s">
@@ -1827,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="13">
         <v>2</v>
@@ -1850,7 +1887,7 @@
       <c r="L2" s="13">
         <v>3</v>
       </c>
-      <c r="Q2" s="20"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" ht="14.25" spans="1:12">
       <c r="A3" s="11" t="s">
@@ -1927,7 +1964,7 @@
       <c r="L4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" ht="49.6" spans="1:12">
       <c r="A5" s="14" t="s">
@@ -1942,14 +1979,14 @@
       <c r="D5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
       </c>
       <c r="G5" s="15">
-        <v>1000000</v>
+        <v>99999</v>
       </c>
       <c r="H5" s="15">
         <v>0</v>
@@ -1965,11 +2002,11 @@
         <v>=DISPIMG("ID_939AC8FC18334A08863030C950C79B6C",1)</v>
       </c>
       <c r="L5" t="str">
-        <f>_xlfn.DISPIMG("ID_31D4D0A79C894E47B87D911C34A74D14",1)</f>
-        <v>=DISPIMG("ID_31D4D0A79C894E47B87D911C34A74D14",1)</v>
-      </c>
-    </row>
-    <row r="6" ht="39.5" spans="1:12">
+        <f>_xlfn.DISPIMG("ID_9CEEDA2E8A1B4B23B847B51ACADD29A9",1)</f>
+        <v>=DISPIMG("ID_9CEEDA2E8A1B4B23B847B51ACADD29A9",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="40" spans="1:12">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -1989,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="15">
-        <v>1000000</v>
+        <v>99999</v>
       </c>
       <c r="H6" s="15">
         <v>0</v>
@@ -2005,92 +2042,129 @@
         <v>=DISPIMG("ID_8468A759A4F14251AF11A7BB2CC96E9F",1)</v>
       </c>
       <c r="L6" t="str">
-        <f>_xlfn.DISPIMG("ID_3810F6E807B2445394E68D66882E4197",1)</f>
-        <v>=DISPIMG("ID_3810F6E807B2445394E68D66882E4197",1)</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="39.55" spans="1:12">
-      <c r="A7" s="16">
+        <f>_xlfn.DISPIMG("ID_A9D3AAFAD75A47A192D3D3E968FAE7B0",1)</f>
+        <v>=DISPIMG("ID_A9D3AAFAD75A47A192D3D3E968FAE7B0",1)</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="40.2" spans="1:12">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="17">
         <v>3</v>
       </c>
       <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>0</v>
       </c>
-      <c r="G7" s="16">
-        <v>1000000</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="17">
+        <v>99999</v>
+      </c>
+      <c r="H7" s="17">
         <v>0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>0</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="17">
         <v>60</v>
       </c>
-      <c r="K7" s="16" t="str">
+      <c r="K7" s="17" t="str">
         <f>_xlfn.DISPIMG("ID_5B7B3AD2D12B4F01A2F925F96FFFB78A",1)</f>
         <v>=DISPIMG("ID_5B7B3AD2D12B4F01A2F925F96FFFB78A",1)</v>
       </c>
-      <c r="L7" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_9309EF61719C429E951CC3A89AB4002B",1)</f>
-        <v>=DISPIMG("ID_9309EF61719C429E951CC3A89AB4002B",1)</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="53" customHeight="1" spans="1:12">
-      <c r="A8" s="17" t="s">
+      <c r="L7" s="4" t="str">
+        <f>_xlfn.DISPIMG("ID_39C65F2DBD3749ACB9C994AC80BA74A3",1)</f>
+        <v>=DISPIMG("ID_39C65F2DBD3749ACB9C994AC80BA74A3",1)</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="53" customHeight="1" spans="1:12">
+      <c r="A8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="19">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="18">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18">
-        <v>2</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="F8" s="19">
         <v>0</v>
       </c>
-      <c r="G8" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="G8" s="19">
+        <v>99999</v>
+      </c>
+      <c r="H8" s="19">
         <v>0</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="19">
         <v>0</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="19">
         <v>60</v>
       </c>
-      <c r="K8" s="18" t="str">
+      <c r="K8" s="19" t="str">
         <f>_xlfn.DISPIMG("ID_6CDAFD46F94845659D2079055E20B351",1)</f>
         <v>=DISPIMG("ID_6CDAFD46F94845659D2079055E20B351",1)</v>
       </c>
-      <c r="L8" s="6" t="str">
-        <f>_xlfn.DISPIMG("ID_7CF6053CD50C41D0BB44AA5E01B7C92E",1)</f>
-        <v>=DISPIMG("ID_7CF6053CD50C41D0BB44AA5E01B7C92E",1)</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:1">
-      <c r="A9" s="14"/>
+      <c r="L8" s="5" t="str">
+        <f>_xlfn.DISPIMG("ID_36B1F02104A6410EB450593DD655BB37",1)</f>
+        <v>=DISPIMG("ID_36B1F02104A6410EB450593DD655BB37",1)</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="39.45" spans="1:12">
+      <c r="A9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="22">
+        <v>101</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>99999</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f>_xlfn.DISPIMG("ID_C833BB38982C471F84C7091A3E686EE1",1)</f>
+        <v>=DISPIMG("ID_C833BB38982C471F84C7091A3E686EE1",1)</v>
+      </c>
+      <c r="L9" s="22" t="str">
+        <f>_xlfn.DISPIMG("ID_C833BB38982C471F84C7091A3E686EE1",1)</f>
+        <v>=DISPIMG("ID_C833BB38982C471F84C7091A3E686EE1",1)</v>
+      </c>
     </row>
     <row r="10" ht="14.25" spans="1:1">
       <c r="A10" s="14"/>
@@ -2161,19 +2235,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2181,16 +2255,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2198,16 +2272,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2218,13 +2292,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2232,16 +2306,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2252,13 +2326,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2270,10 +2344,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2281,16 +2355,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2298,16 +2372,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2315,16 +2389,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2332,16 +2406,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2349,16 +2423,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2366,13 +2440,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2380,10 +2454,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2391,10 +2465,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2402,10 +2476,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2413,10 +2487,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2424,10 +2498,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2435,10 +2509,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2446,10 +2520,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2457,10 +2531,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2468,10 +2542,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2479,10 +2553,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2490,10 +2564,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2501,10 +2575,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2512,13 +2586,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>30</v>
@@ -2529,16 +2603,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2546,16 +2620,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2563,16 +2637,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2583,10 +2657,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2594,16 +2668,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2611,16 +2685,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2628,16 +2702,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2645,16 +2719,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2662,16 +2736,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2679,14 +2753,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2694,28 +2768,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="C38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>129</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
